--- a/automationexercise - Casos de Teste.xlsx
+++ b/automationexercise - Casos de Teste.xlsx
@@ -1,48 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55359\Desktop\Treinamento QA\Treinamento-QA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0024ED-F6D4-46B9-9EB8-D6EC5DFE5504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Application Under Test (AUT):</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Data de Modificação:</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 06-02-2023</t>
     </r>
   </si>
@@ -75,19 +105,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -100,18 +136,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- A página </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/products</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> deve ser carregada com sucesso
 2- Os produtos devem ser listados</t>
     </r>
@@ -130,19 +172,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -164,19 +212,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -203,19 +257,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -279,18 +339,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- A página </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/products</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> deve ser carregada com sucesso
 2- Os produtos considerados polo devem ser listados</t>
     </r>
@@ -349,19 +415,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -377,19 +449,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -398,19 +476,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -421,19 +505,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -441,41 +531,183 @@
     <t>1- Abra o navegador e navegue até a página https://automationexercise.com/
 2- Clique na opção 'Contact Us' no topo da página
 3- Insira algum nome inválido no campo name</t>
+  </si>
+  <si>
+    <t>Validar se no campo nome verifica nomes válidos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1- Acesso: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://automationexercise.com/
+2- Brownser (Chrome e/ou Firefox)</t>
+    </r>
+  </si>
+  <si>
+    <t>1- Abra o navegador e navegue até a página https://automationexercise.com/
+2- Clique na opção 'Sign up/Login' no topo da página
+3- Insira algum nome válido no campo Name</t>
+  </si>
+  <si>
+    <t>Diego
+Danilo
+Celso</t>
+  </si>
+  <si>
+    <t>1- Nenhuma mensagem deve aparecer</t>
+  </si>
+  <si>
+    <t>Validar se o campo email verifica o e-mail válidos</t>
+  </si>
+  <si>
+    <t>1- Abra o navegador e navegue até a página https://automationexercise.com/
+2- Clique na opção 'Sign up/Login' no topo da página
+3- Insira algum email válido no campo Email Address</t>
+  </si>
+  <si>
+    <t>diegofranceli1@gmail.com
+dcarvalho@gea.inatel.br</t>
+  </si>
+  <si>
+    <t>Validar o botão Signup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1- Acesso: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://automationexercise.com/
+2- Brownser (Chrome e/ou Firefox)
+3- Executar o teste 16
+4- Executar o teste 17</t>
+    </r>
+  </si>
+  <si>
+    <t>1- Clicar no botão Signup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1- A página </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://automationexercise.com/signup deve ser carregada</t>
+    </r>
+  </si>
+  <si>
+    <t>Validar se o campo State aceita nomes ou números inválidos</t>
+  </si>
+  <si>
+    <t>1- Executar o teste 18</t>
+  </si>
+  <si>
+    <t>1- Inserir algum nome ou números de estado inválidos no campo State</t>
+  </si>
+  <si>
+    <t>148262
+deifokfs</t>
+  </si>
+  <si>
+    <t>1- O sistema deve informar que o Estado está incorreto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -483,7 +715,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -492,45 +724,76 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -720,479 +983,611 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="61.88"/>
-    <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="58.0"/>
-    <col customWidth="1" min="5" max="5" width="45.75"/>
-    <col customWidth="1" min="6" max="6" width="76.13"/>
-    <col customWidth="1" min="12" max="12" width="65.5"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" customWidth="1"/>
+    <col min="6" max="6" width="76.109375" customWidth="1"/>
+    <col min="12" max="12" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="6" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>18</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>19</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="C5"/>
-    <hyperlink r:id="rId3" ref="F5"/>
-    <hyperlink r:id="rId4" ref="C6"/>
-    <hyperlink r:id="rId5" ref="E6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="F11"/>
-    <hyperlink r:id="rId9" ref="C16"/>
-    <hyperlink r:id="rId10" ref="C17"/>
-    <hyperlink r:id="rId11" ref="C18"/>
-    <hyperlink r:id="rId12" ref="C19"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C20" r:id="rId13" display="https://automationexercise.com/" xr:uid="{4E2D0DF3-46C9-4D50-8F58-0BC13BA72518}"/>
+    <hyperlink ref="C21" r:id="rId14" display="https://automationexercise.com/" xr:uid="{ED12D902-BC27-4E9C-B56F-BD9E36C01D1B}"/>
+    <hyperlink ref="C22" r:id="rId15" display="https://automationexercise.com/" xr:uid="{9C98E35D-052F-48EE-81C0-4E1E6C2008E0}"/>
+    <hyperlink ref="F22" r:id="rId16" display="https://automationexercise.com/signup" xr:uid="{A2F305DD-C784-4985-8216-F76EB331E84E}"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/automationexercise - Casos de Teste.xlsx
+++ b/automationexercise - Casos de Teste.xlsx
@@ -1,78 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55359\Desktop\Treinamento QA\Treinamento-QA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0024ED-F6D4-46B9-9EB8-D6EC5DFE5504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Application Under Test (AUT):</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Data de Modificação:</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t xml:space="preserve"> 06-02-2023</t>
     </r>
   </si>
@@ -83,7 +53,7 @@
     <t>Resumo (Summary) - Titulo</t>
   </si>
   <si>
-    <t>Pré-Requisito</t>
+    <t>Pre-Requirements</t>
   </si>
   <si>
     <t>Step by Step</t>
@@ -105,25 +75,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -136,24 +100,18 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- A página </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/products</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t xml:space="preserve"> deve ser carregada com sucesso
 2- Os produtos devem ser listados</t>
     </r>
@@ -172,25 +130,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -212,25 +164,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -257,25 +203,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -339,24 +279,18 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- A página </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/products</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t xml:space="preserve"> deve ser carregada com sucesso
 2- Os produtos considerados polo devem ser listados</t>
     </r>
@@ -415,25 +349,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -449,25 +377,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -476,25 +398,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -505,25 +421,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
+      <rPr/>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -537,19 +447,20 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://automationexercise.com/
-2- Brownser (Chrome e/ou Firefox)</t>
+      </rPr>
+      <t xml:space="preserve">https://automationexercise.com/
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
   <si>
@@ -569,6 +480,24 @@
     <t>Validar se o campo email verifica o e-mail válidos</t>
   </si>
   <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1- Acesso: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://automationexercise.com/
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>2- Brownser (Chrome e/ou Firefox)</t>
+    </r>
+  </si>
+  <si>
     <t>1- Abra o navegador e navegue até a página https://automationexercise.com/
 2- Clique na opção 'Sign up/Login' no topo da página
 3- Insira algum email válido no campo Email Address</t>
@@ -582,21 +511,21 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://automationexercise.com/
-2- Brownser (Chrome e/ou Firefox)
-3- Executar o teste 16
-4- Executar o teste 17</t>
+      </rPr>
+      <t xml:space="preserve">https://automationexercise.com/
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>2- Brownser (Chrome e/ou Firefox)
+3- Inserir na página Signup um nome e e-mail válidos</t>
     </r>
   </si>
   <si>
@@ -604,18 +533,19 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">1- A página </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://automationexercise.com/signup deve ser carregada</t>
+      </rPr>
+      <t>https://automationexercise.com/signup</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> deve ser carregada</t>
     </r>
   </si>
   <si>
@@ -633,81 +563,44 @@
   </si>
   <si>
     <t>1- O sistema deve informar que o Estado está incorreto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -715,7 +608,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -724,76 +617,45 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -983,611 +845,587 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="61.88671875" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="58" customWidth="1"/>
-    <col min="5" max="5" width="45.77734375" customWidth="1"/>
-    <col min="6" max="6" width="76.109375" customWidth="1"/>
-    <col min="12" max="12" width="65.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="61.88"/>
+    <col customWidth="1" min="3" max="3" width="32.88"/>
+    <col customWidth="1" min="4" max="4" width="58.0"/>
+    <col customWidth="1" min="5" max="5" width="45.75"/>
+    <col customWidth="1" min="6" max="6" width="76.13"/>
+    <col customWidth="1" min="12" max="12" width="65.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5">
+      <c r="A5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6">
+      <c r="A6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7">
+      <c r="A7" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12">
+      <c r="A12" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13">
+      <c r="A13" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14">
+      <c r="A14" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15">
+      <c r="A15" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16">
+      <c r="A16" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>17</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>18</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>19</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C20" r:id="rId13" display="https://automationexercise.com/" xr:uid="{4E2D0DF3-46C9-4D50-8F58-0BC13BA72518}"/>
-    <hyperlink ref="C21" r:id="rId14" display="https://automationexercise.com/" xr:uid="{ED12D902-BC27-4E9C-B56F-BD9E36C01D1B}"/>
-    <hyperlink ref="C22" r:id="rId15" display="https://automationexercise.com/" xr:uid="{9C98E35D-052F-48EE-81C0-4E1E6C2008E0}"/>
-    <hyperlink ref="F22" r:id="rId16" display="https://automationexercise.com/signup" xr:uid="{A2F305DD-C784-4985-8216-F76EB331E84E}"/>
+    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink r:id="rId2" ref="C5"/>
+    <hyperlink r:id="rId3" ref="F5"/>
+    <hyperlink r:id="rId4" ref="C6"/>
+    <hyperlink r:id="rId5" ref="E6"/>
+    <hyperlink r:id="rId6" ref="C7"/>
+    <hyperlink r:id="rId7" ref="C8"/>
+    <hyperlink r:id="rId8" ref="F11"/>
+    <hyperlink r:id="rId9" ref="C16"/>
+    <hyperlink r:id="rId10" ref="C17"/>
+    <hyperlink r:id="rId11" ref="C18"/>
+    <hyperlink r:id="rId12" ref="C19"/>
+    <hyperlink r:id="rId13" ref="C20"/>
+    <hyperlink r:id="rId14" ref="C21"/>
+    <hyperlink r:id="rId15" ref="C22"/>
+    <hyperlink r:id="rId16" ref="F22"/>
   </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/automationexercise - Casos de Teste.xlsx
+++ b/automationexercise - Casos de Teste.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55359\Desktop\Treinamento QA\Treinamento-QA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B612F442-4332-4056-A6AF-07D14279194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,33 +25,54 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Application Under Test (AUT):</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Data de Modificação:</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 06-02-2023</t>
     </r>
   </si>
@@ -50,18 +80,12 @@
     <t>ID(identificador)</t>
   </si>
   <si>
-    <t>Resumo (Summary) - Titulo</t>
-  </si>
-  <si>
     <t>Pre-Requirements</t>
   </si>
   <si>
     <t>Step by Step</t>
   </si>
   <si>
-    <t>Data Set (massa de teste)</t>
-  </si>
-  <si>
     <t>Resultado Experado</t>
   </si>
   <si>
@@ -75,19 +99,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -100,18 +130,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- A página </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/products</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> deve ser carregada com sucesso
 2- Os produtos devem ser listados</t>
     </r>
@@ -130,19 +166,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -164,19 +206,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -203,19 +251,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -279,18 +333,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- A página </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/products</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> deve ser carregada com sucesso
 2- Os produtos considerados polo devem ser listados</t>
     </r>
@@ -349,19 +409,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -377,19 +443,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -398,19 +470,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -421,19 +499,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -447,19 +531,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -481,19 +571,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)</t>
     </r>
   </si>
@@ -511,19 +607,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- Acesso: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://automationexercise.com/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2- Brownser (Chrome e/ou Firefox)
 3- Inserir na página Signup um nome e e-mail válidos</t>
     </r>
@@ -533,18 +635,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">1- A página </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://automationexercise.com/signup</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> deve ser carregada</t>
     </r>
   </si>
@@ -566,40 +674,64 @@
   </si>
   <si>
     <t xml:space="preserve">Média </t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Data Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -608,7 +740,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -618,44 +750,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -845,563 +980,583 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="61.88"/>
-    <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="58.0"/>
-    <col customWidth="1" min="5" max="5" width="45.75"/>
-    <col customWidth="1" min="6" max="6" width="76.13"/>
-    <col customWidth="1" min="12" max="12" width="65.5"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" customWidth="1"/>
+    <col min="6" max="6" width="76.109375" customWidth="1"/>
+    <col min="12" max="12" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1409,23 +1564,23 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="C5"/>
-    <hyperlink r:id="rId3" ref="F5"/>
-    <hyperlink r:id="rId4" ref="C6"/>
-    <hyperlink r:id="rId5" ref="E6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="F11"/>
-    <hyperlink r:id="rId9" ref="C16"/>
-    <hyperlink r:id="rId10" ref="C17"/>
-    <hyperlink r:id="rId11" ref="C18"/>
-    <hyperlink r:id="rId12" ref="C19"/>
-    <hyperlink r:id="rId13" ref="C20"/>
-    <hyperlink r:id="rId14" ref="C21"/>
-    <hyperlink r:id="rId15" ref="C22"/>
-    <hyperlink r:id="rId16" ref="F22"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>